--- a/poblacion.xlsx
+++ b/poblacion.xlsx
@@ -1,146 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C0F38-6A60-40AF-A94D-759E9041B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>poblacion</t>
   </si>
   <si>
-    <t>Rusia (Moscú): 145.965.081</t>
-  </si>
-  <si>
-    <t>Alemania (Berlín): 83.705.450</t>
-  </si>
-  <si>
-    <t>Reino Unido (Londres): 83.149.300</t>
-  </si>
-  <si>
-    <t>Francia (Paris): 65.503.950</t>
-  </si>
-  <si>
-    <t>Italia (Roma): 60.549.922</t>
-  </si>
-  <si>
-    <t>España (Madrid): 46.646.274</t>
-  </si>
-  <si>
-    <t>Ucrania(Kiev): 43.698.727</t>
-  </si>
-  <si>
-    <t>Polonia (Varsovia): 37.874.479</t>
-  </si>
-  <si>
-    <t>Rumania (Bucarest): 19.143.720</t>
-  </si>
-  <si>
-    <t>Países Bajos (Ámsterdam): 17.177.571</t>
-  </si>
-  <si>
-    <t>Grecia (Atenas): 10.404.796</t>
-  </si>
-  <si>
-    <t>Bélgica (Bruselas): 11.643.754</t>
-  </si>
-  <si>
-    <t>República Checa (Praga): 10.706.748</t>
-  </si>
-  <si>
-    <t>Portugal (Lisboa): 10.164.191</t>
-  </si>
-  <si>
-    <t>Suecia (Estocolmo): 10.153.903</t>
-  </si>
-  <si>
-    <t>Hungría (Budapest): 9.640.503</t>
-  </si>
-  <si>
-    <t>Bielorrusia (Minsk): 9.451.635</t>
-  </si>
-  <si>
-    <t>Austria (Viena): 9.014.165</t>
-  </si>
-  <si>
-    <t>Suiza (Berna): 8.726.212</t>
-  </si>
-  <si>
-    <t>Bulgaria (Sofia): 6.923.414</t>
-  </si>
-  <si>
-    <t>Serbia (Belgrado): 8.712.910</t>
-  </si>
-  <si>
-    <t>Dinamarca (Copenhague): 5.807.148</t>
-  </si>
-  <si>
-    <t>Finlandia (Helsinki): 5.564.894</t>
-  </si>
-  <si>
-    <t>Eslovaquia (Bratislava): 5.462.322</t>
-  </si>
-  <si>
-    <t>Noruega (Oslo): 5.470.540</t>
-  </si>
-  <si>
-    <t>Irlanda (Dublín): 4.925.761</t>
-  </si>
-  <si>
-    <t>Croacia (Zagreb): 4.102.590</t>
-  </si>
-  <si>
-    <t>Bosnia y Herzegovina (Sarajevo): 3.286.449</t>
-  </si>
-  <si>
-    <t>Moldavia (Chisinau): 4.035.385</t>
-  </si>
-  <si>
-    <t>Albania (Tirana): 2.878.281</t>
-  </si>
-  <si>
-    <t>Lituania (Vilnius): 2.694.936</t>
-  </si>
-  <si>
-    <t>Macedonia (Skopje): 2.086.742</t>
-  </si>
-  <si>
-    <t>Eslovenia (Liubliana): 2.081.917</t>
-  </si>
-  <si>
-    <t>Letonia (Riga): 1.873.356</t>
-  </si>
-  <si>
-    <t>Estonia (Tallin): 1.322.071</t>
-  </si>
-  <si>
-    <t>Montenegro (Podgorica): 628.819</t>
-  </si>
-  <si>
-    <t>Luxemburgo (Luxemburgo): 634.965</t>
-  </si>
-  <si>
-    <t>Malta (La Valleta): 442.409</t>
-  </si>
-  <si>
-    <t>Islandia (Reikiavik): 342.611</t>
+    <t>ciudad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,11 +95,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -249,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +181,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +233,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,331 +426,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2878281</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9014165</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9451635</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6923414</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5807148</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2081917</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1322071</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>65503950</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10404796</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4925761</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>60549922</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2694936</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2086742</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4035385</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>17177571</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10164191</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10706748</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10153903</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>83705450</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11643754</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3286449</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4102590</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5462322</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5564894</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9640503</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>342611</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1873356</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>634965</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>442409</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5470540</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>37874479</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>19143720</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8712910</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+    <sortCondition ref="B2:B35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/poblacion.xlsx
+++ b/poblacion.xlsx
@@ -1,38 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C0F38-6A60-40AF-A94D-759E9041B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>poblacion</t>
   </si>
   <si>
     <t>ciudad</t>
   </si>
+  <si>
+    <t>tamaño</t>
+  </si>
+  <si>
+    <t>grande</t>
+  </si>
+  <si>
+    <t>pequeña</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,19 +98,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -149,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,291 +385,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>2878281</v>
+        <v>494000</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>9014165</v>
+        <v>1897000</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>9451635</v>
+        <v>1975000</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>6923414</v>
+        <v>1236000</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>5807148</v>
+        <v>602481</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>2081917</v>
+        <v>279631</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>1322071</v>
+        <v>426538</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>65503950</v>
+        <v>2161000</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>10404796</v>
+        <v>3167000</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>4925761</v>
+        <v>544107</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>60549922</v>
+        <v>2873000</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>2694936</v>
+        <v>544386</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>2086742</v>
+        <v>546824</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>4035385</v>
+        <v>669694</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>17177571</v>
+        <v>821752</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>10164191</v>
+        <v>504718</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>10706748</v>
+        <v>1309000</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>10153903</v>
+        <v>975551</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>83705450</v>
+        <v>3645000</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
-        <v>11643754</v>
+        <v>181726</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
-        <v>3286449</v>
+        <v>275524</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
-        <v>4102590</v>
+        <v>806341</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
-        <v>5462322</v>
+        <v>424428</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
-        <v>5564894</v>
+        <v>631695</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>9640503</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
-        <v>342611</v>
+        <v>122853</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
-        <v>1873356</v>
+        <v>632614</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
-        <v>634965</v>
+        <v>639070</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
-        <v>442409</v>
+        <v>5730</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
-        <v>5470540</v>
+        <v>634293</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
-        <v>37874479</v>
+        <v>1765000</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
-        <v>19143720</v>
+        <v>1830000</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
-        <v>8712910</v>
+        <v>1374000</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
-    <sortCondition ref="B2:B35"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/poblacion.xlsx
+++ b/poblacion.xlsx
@@ -25,10 +25,10 @@
     <t>tamaño</t>
   </si>
   <si>
-    <t>grande</t>
+    <t>pequeña</t>
   </si>
   <si>
-    <t>pequeña</t>
+    <t>grande</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
